--- a/resistance_assay/20241205_Sink_Isolates_AR_22-8.xlsx
+++ b/resistance_assay/20241205_Sink_Isolates_AR_22-8.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tecan\Documents\Zhengqing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iridashyti/Documents/Duke_you_lab/sink_microbe_isolates/resistance_assay/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB20E1D-C0FD-9749-863C-ABAC4CA50DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="7290"/>
+    <workbookView xWindow="14740" yWindow="1280" windowWidth="14760" windowHeight="14100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1st Batch" sheetId="2" r:id="rId1"/>
@@ -25,12 +26,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Tecan</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -38,7 +39,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.9.1.0
 Tecan.At.Common.DocumentManagement, 3.9.1.0
@@ -95,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -103,7 +104,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">EHC, V_5.23_05/17_InfiniteRX (May  9 2017/12.19.53)
 MTP, V_5.23_05/17_InfiniteRX (May  9 2017/12.19.53)
@@ -120,12 +121,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Tecan</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -133,7 +134,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.9.1.0
 Tecan.At.Common.DocumentManagement, 3.9.1.0
@@ -190,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -198,7 +199,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">EHC, V_5.23_05/17_InfiniteRX (May  9 2017/12.19.53)
 MTP, V_5.23_05/17_InfiniteRX (May  9 2017/12.19.53)
@@ -215,7 +216,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="67">
   <si>
     <t>Application: Tecan i-control</t>
   </si>
@@ -413,12 +414,15 @@
   </si>
   <si>
     <t>12/5/2024 3:42:59 PM</t>
+  </si>
+  <si>
+    <t>Lb-control</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -446,7 +450,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -533,13 +537,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Tecan.At.Excel.Attenuation" xfId="6"/>
-    <cellStyle name="Tecan.At.Excel.AutoGain_0" xfId="7"/>
-    <cellStyle name="Tecan.At.Excel.Error" xfId="1"/>
-    <cellStyle name="Tecan.At.Excel.GFactorAndMeasurementBlank" xfId="5"/>
-    <cellStyle name="Tecan.At.Excel.GFactorBlank" xfId="3"/>
-    <cellStyle name="Tecan.At.Excel.GFactorReference" xfId="4"/>
-    <cellStyle name="Tecan.At.Excel.MeasurementBlank" xfId="2"/>
+    <cellStyle name="Tecan.At.Excel.Attenuation" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Tecan.At.Excel.AutoGain_0" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Tecan.At.Excel.Error" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Tecan.At.Excel.GFactorAndMeasurementBlank" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Tecan.At.Excel.GFactorBlank" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Tecan.At.Excel.GFactorReference" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Tecan.At.Excel.MeasurementBlank" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -816,16 +820,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -833,7 +837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -844,7 +848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -852,7 +856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -860,7 +864,7 @@
         <v>45631</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -868,7 +872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -876,7 +880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -884,7 +888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -892,12 +896,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -917,7 +921,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -937,7 +941,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -957,12 +961,12 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -970,7 +974,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -981,7 +985,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -992,7 +996,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1000,7 +1004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1011,7 +1015,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1019,12 +1023,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>36</v>
       </c>
@@ -1065,7 +1069,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>37</v>
       </c>
@@ -1109,7 +1113,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>38</v>
       </c>
@@ -1153,7 +1157,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>39</v>
       </c>
@@ -1197,7 +1201,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>40</v>
       </c>
@@ -1241,7 +1245,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>41</v>
       </c>
@@ -1285,7 +1289,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>42</v>
       </c>
@@ -1329,7 +1333,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>43</v>
       </c>
@@ -1361,19 +1365,19 @@
         <v>0.80629998445510864</v>
       </c>
       <c r="K36">
-        <v>0.84460002183914185</v>
+        <v>0.870599985122681</v>
       </c>
       <c r="L36">
-        <v>4.2800001800060272E-2</v>
+        <v>0.79189997911453203</v>
       </c>
       <c r="M36">
-        <v>4.6900000423192978E-2</v>
+        <v>0.88029998540878296</v>
       </c>
       <c r="N36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>44</v>
       </c>
@@ -1414,7 +1418,7 @@
         <v>4.6900000423192978E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>47</v>
       </c>
@@ -1425,7 +1429,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1434,32 +1438,32 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="N31">
-    <cfRule type="colorScale" priority="11">
+  <conditionalFormatting sqref="B30:M37">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FF92D050"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N34">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FF00B050"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N36">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="num" val="4.2500000000000003E-2"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1472,6 +1476,16 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="N31">
     <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1505,6 +1519,16 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N36">
     <cfRule type="colorScale" priority="5">
@@ -1517,669 +1541,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:M37">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="num" val="4.2500000000000003E-2"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FF92D050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N41"/>
-  <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36:G36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1">
-        <v>45631</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3">
-        <v>5</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3">
-        <v>2</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22">
-        <v>600</v>
-      </c>
-      <c r="F22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23">
-        <v>9</v>
-      </c>
-      <c r="F23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30">
-        <v>1.2547999620437622</v>
-      </c>
-      <c r="C30">
-        <v>1.2357000112533569</v>
-      </c>
-      <c r="D30">
-        <v>1.2216000556945801</v>
-      </c>
-      <c r="E30">
-        <v>1.2238999605178833</v>
-      </c>
-      <c r="F30">
-        <v>1.2045999765396118</v>
-      </c>
-      <c r="G30">
-        <v>1.2186000347137451</v>
-      </c>
-      <c r="H30">
-        <v>1.2519999742507935</v>
-      </c>
-      <c r="I30">
-        <v>1.2258000373840332</v>
-      </c>
-      <c r="J30">
-        <v>1.2144999504089355</v>
-      </c>
-      <c r="K30">
-        <v>1.448699951171875</v>
-      </c>
-      <c r="L30">
-        <v>1.4562000036239624</v>
-      </c>
-      <c r="M30">
-        <v>1.4558999538421631</v>
-      </c>
-      <c r="N30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31">
-        <v>0.72299998998641968</v>
-      </c>
-      <c r="C31">
-        <v>0.32260000705718994</v>
-      </c>
-      <c r="D31">
-        <v>0.11209999769926071</v>
-      </c>
-      <c r="E31">
-        <v>0.93129998445510864</v>
-      </c>
-      <c r="F31">
-        <v>0.93540000915527344</v>
-      </c>
-      <c r="G31">
-        <v>0.89740002155303955</v>
-      </c>
-      <c r="H31">
-        <v>0.87559998035430908</v>
-      </c>
-      <c r="I31">
-        <v>0.69739997386932373</v>
-      </c>
-      <c r="J31">
-        <v>0.680899977684021</v>
-      </c>
-      <c r="K31">
-        <v>0.59179997444152832</v>
-      </c>
-      <c r="L31">
-        <v>0.61909997463226318</v>
-      </c>
-      <c r="M31">
-        <v>0.61390000581741333</v>
-      </c>
-      <c r="N31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32">
-        <v>0.89600002765655518</v>
-      </c>
-      <c r="C32">
-        <v>1.0091999769210815</v>
-      </c>
-      <c r="D32">
-        <v>0.91900002956390381</v>
-      </c>
-      <c r="E32">
-        <v>0.93919998407363892</v>
-      </c>
-      <c r="F32">
-        <v>0.91479998826980591</v>
-      </c>
-      <c r="G32">
-        <v>0.94450002908706665</v>
-      </c>
-      <c r="H32">
-        <v>0.93589997291564941</v>
-      </c>
-      <c r="I32">
-        <v>0.87680000066757202</v>
-      </c>
-      <c r="J32">
-        <v>1.0109000205993652</v>
-      </c>
-      <c r="K32">
-        <v>1.1572999954223633</v>
-      </c>
-      <c r="L32">
-        <v>1.1317000389099121</v>
-      </c>
-      <c r="M32">
-        <v>1.1229000091552734</v>
-      </c>
-      <c r="N32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33">
-        <v>1.1919000148773193</v>
-      </c>
-      <c r="C33">
-        <v>1.3135999441146851</v>
-      </c>
-      <c r="D33">
-        <v>1.3068000078201294</v>
-      </c>
-      <c r="E33">
-        <v>1.261199951171875</v>
-      </c>
-      <c r="F33">
-        <v>1.2745000123977661</v>
-      </c>
-      <c r="G33">
-        <v>1.153499960899353</v>
-      </c>
-      <c r="H33">
-        <v>1.2517000436782837</v>
-      </c>
-      <c r="I33">
-        <v>1.2704000473022461</v>
-      </c>
-      <c r="J33">
-        <v>1.2509000301361084</v>
-      </c>
-      <c r="K33">
-        <v>1.3910000324249268</v>
-      </c>
-      <c r="L33">
-        <v>1.3855999708175659</v>
-      </c>
-      <c r="M33">
-        <v>1.3983000516891479</v>
-      </c>
-      <c r="N33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34">
-        <v>0.66640001535415649</v>
-      </c>
-      <c r="C34">
-        <v>0.70670002698898315</v>
-      </c>
-      <c r="D34">
-        <v>0.70120000839233398</v>
-      </c>
-      <c r="E34">
-        <v>0.8507000207901001</v>
-      </c>
-      <c r="F34">
-        <v>0.73629999160766602</v>
-      </c>
-      <c r="G34">
-        <v>0.8409000039100647</v>
-      </c>
-      <c r="H34">
-        <v>0.83329999446868896</v>
-      </c>
-      <c r="I34">
-        <v>0.86779999732971191</v>
-      </c>
-      <c r="J34">
-        <v>0.87940001487731934</v>
-      </c>
-      <c r="K34">
-        <v>0.9351000189781189</v>
-      </c>
-      <c r="L34">
-        <v>1.0831999778747559</v>
-      </c>
-      <c r="M34">
-        <v>0.25189998745918274</v>
-      </c>
-      <c r="N34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35">
-        <v>1.2375999689102173</v>
-      </c>
-      <c r="C35">
-        <v>1.2832000255584717</v>
-      </c>
-      <c r="D35">
-        <v>1.2874000072479248</v>
-      </c>
-      <c r="E35">
-        <v>1.1785000562667847</v>
-      </c>
-      <c r="F35">
-        <v>1.2655999660491943</v>
-      </c>
-      <c r="G35">
-        <v>1.240399956703186</v>
-      </c>
-      <c r="H35">
-        <v>1.2519999742507935</v>
-      </c>
-      <c r="I35">
-        <v>1.2051999568939209</v>
-      </c>
-      <c r="J35">
-        <v>1.2111999988555908</v>
-      </c>
-      <c r="K35">
-        <v>1.3732999563217163</v>
-      </c>
-      <c r="L35">
-        <v>1.3701000213623047</v>
-      </c>
-      <c r="M35">
-        <v>1.3937000036239624</v>
-      </c>
-      <c r="N35" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36">
-        <v>1.264799952507019</v>
-      </c>
-      <c r="C36">
-        <v>1.2232999801635742</v>
-      </c>
-      <c r="D36">
-        <v>1.229699969291687</v>
-      </c>
-      <c r="E36">
-        <v>4.4700000435113907E-2</v>
-      </c>
-      <c r="F36">
-        <v>1.1833000183105469</v>
-      </c>
-      <c r="G36">
-        <v>1.1920000314712524</v>
-      </c>
-      <c r="H36">
-        <v>0.52090001106262207</v>
-      </c>
-      <c r="I36">
-        <v>0.31330001354217529</v>
-      </c>
-      <c r="J36">
-        <v>0.34139999747276306</v>
-      </c>
-      <c r="K36">
-        <v>0.44389998912811279</v>
-      </c>
-      <c r="L36">
-        <v>0.61320000886917114</v>
-      </c>
-      <c r="M36">
-        <v>0.27239999175071716</v>
-      </c>
-      <c r="N36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37">
-        <v>4.2599998414516449E-2</v>
-      </c>
-      <c r="C37">
-        <v>4.2599998414516449E-2</v>
-      </c>
-      <c r="D37">
-        <v>4.2500000447034836E-2</v>
-      </c>
-      <c r="E37">
-        <v>4.7899998724460602E-2</v>
-      </c>
-      <c r="F37">
-        <v>4.7400001436471939E-2</v>
-      </c>
-      <c r="G37">
-        <v>4.6500001102685928E-2</v>
-      </c>
-      <c r="H37">
-        <v>4.7200001776218414E-2</v>
-      </c>
-      <c r="I37">
-        <v>4.7299999743700027E-2</v>
-      </c>
-      <c r="J37">
-        <v>4.7200001776218414E-2</v>
-      </c>
-      <c r="K37">
-        <v>4.6599999070167542E-2</v>
-      </c>
-      <c r="L37">
-        <v>4.6500001102685928E-2</v>
-      </c>
-      <c r="M37">
-        <v>4.7100000083446503E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="N31">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2190,8 +1552,645 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N34">
-    <cfRule type="colorScale" priority="7">
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3">
+        <v>5</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>600</v>
+      </c>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30">
+        <v>1.2547999620437622</v>
+      </c>
+      <c r="C30">
+        <v>1.2357000112533569</v>
+      </c>
+      <c r="D30">
+        <v>1.2216000556945801</v>
+      </c>
+      <c r="E30">
+        <v>1.2238999605178833</v>
+      </c>
+      <c r="F30">
+        <v>1.2045999765396118</v>
+      </c>
+      <c r="G30">
+        <v>1.2186000347137451</v>
+      </c>
+      <c r="H30">
+        <v>1.2519999742507935</v>
+      </c>
+      <c r="I30">
+        <v>1.2258000373840332</v>
+      </c>
+      <c r="J30">
+        <v>1.2144999504089355</v>
+      </c>
+      <c r="K30">
+        <v>1.448699951171875</v>
+      </c>
+      <c r="L30">
+        <v>1.4562000036239624</v>
+      </c>
+      <c r="M30">
+        <v>1.4558999538421631</v>
+      </c>
+      <c r="N30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31">
+        <v>0.72299998998641968</v>
+      </c>
+      <c r="C31">
+        <v>0.32260000705718994</v>
+      </c>
+      <c r="D31">
+        <v>0.11209999769926071</v>
+      </c>
+      <c r="E31">
+        <v>0.93129998445510864</v>
+      </c>
+      <c r="F31">
+        <v>0.93540000915527344</v>
+      </c>
+      <c r="G31">
+        <v>0.89740002155303955</v>
+      </c>
+      <c r="H31">
+        <v>0.87559998035430908</v>
+      </c>
+      <c r="I31">
+        <v>0.69739997386932373</v>
+      </c>
+      <c r="J31">
+        <v>0.680899977684021</v>
+      </c>
+      <c r="K31">
+        <v>0.59179997444152832</v>
+      </c>
+      <c r="L31">
+        <v>0.61909997463226318</v>
+      </c>
+      <c r="M31">
+        <v>0.61390000581741333</v>
+      </c>
+      <c r="N31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32">
+        <v>0.89600002765655518</v>
+      </c>
+      <c r="C32">
+        <v>1.0091999769210815</v>
+      </c>
+      <c r="D32">
+        <v>0.91900002956390381</v>
+      </c>
+      <c r="E32">
+        <v>0.93919998407363892</v>
+      </c>
+      <c r="F32">
+        <v>0.91479998826980591</v>
+      </c>
+      <c r="G32">
+        <v>0.94450002908706665</v>
+      </c>
+      <c r="H32">
+        <v>0.93589997291564941</v>
+      </c>
+      <c r="I32">
+        <v>0.87680000066757202</v>
+      </c>
+      <c r="J32">
+        <v>1.0109000205993652</v>
+      </c>
+      <c r="K32">
+        <v>1.1572999954223633</v>
+      </c>
+      <c r="L32">
+        <v>1.1317000389099121</v>
+      </c>
+      <c r="M32">
+        <v>1.1229000091552734</v>
+      </c>
+      <c r="N32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>1.1919000148773193</v>
+      </c>
+      <c r="C33">
+        <v>1.3135999441146851</v>
+      </c>
+      <c r="D33">
+        <v>1.3068000078201294</v>
+      </c>
+      <c r="E33">
+        <v>1.261199951171875</v>
+      </c>
+      <c r="F33">
+        <v>1.2745000123977661</v>
+      </c>
+      <c r="G33">
+        <v>1.153499960899353</v>
+      </c>
+      <c r="H33">
+        <v>1.2517000436782837</v>
+      </c>
+      <c r="I33">
+        <v>1.2704000473022461</v>
+      </c>
+      <c r="J33">
+        <v>1.2509000301361084</v>
+      </c>
+      <c r="K33">
+        <v>1.3910000324249268</v>
+      </c>
+      <c r="L33">
+        <v>1.3855999708175659</v>
+      </c>
+      <c r="M33">
+        <v>1.3983000516891479</v>
+      </c>
+      <c r="N33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34">
+        <v>0.66640001535415649</v>
+      </c>
+      <c r="C34">
+        <v>0.70670002698898315</v>
+      </c>
+      <c r="D34">
+        <v>0.70120000839233398</v>
+      </c>
+      <c r="E34">
+        <v>0.8507000207901001</v>
+      </c>
+      <c r="F34">
+        <v>0.73629999160766602</v>
+      </c>
+      <c r="G34">
+        <v>0.8409000039100647</v>
+      </c>
+      <c r="H34">
+        <v>0.83329999446868896</v>
+      </c>
+      <c r="I34">
+        <v>0.86779999732971191</v>
+      </c>
+      <c r="J34">
+        <v>0.87940001487731934</v>
+      </c>
+      <c r="K34">
+        <v>0.9351000189781189</v>
+      </c>
+      <c r="L34">
+        <v>1.0831999778747559</v>
+      </c>
+      <c r="M34">
+        <v>0.25189998745918274</v>
+      </c>
+      <c r="N34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>1.2375999689102173</v>
+      </c>
+      <c r="C35">
+        <v>1.2832000255584717</v>
+      </c>
+      <c r="D35">
+        <v>1.2874000072479248</v>
+      </c>
+      <c r="E35">
+        <v>1.1785000562667847</v>
+      </c>
+      <c r="F35">
+        <v>1.2655999660491943</v>
+      </c>
+      <c r="G35">
+        <v>1.240399956703186</v>
+      </c>
+      <c r="H35">
+        <v>1.2519999742507935</v>
+      </c>
+      <c r="I35">
+        <v>1.2051999568939209</v>
+      </c>
+      <c r="J35">
+        <v>1.2111999988555908</v>
+      </c>
+      <c r="K35">
+        <v>1.3732999563217163</v>
+      </c>
+      <c r="L35">
+        <v>1.3701000213623047</v>
+      </c>
+      <c r="M35">
+        <v>1.3937000036239624</v>
+      </c>
+      <c r="N35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36">
+        <v>1.264799952507019</v>
+      </c>
+      <c r="C36">
+        <v>1.2232999801635742</v>
+      </c>
+      <c r="D36">
+        <v>1.229699969291687</v>
+      </c>
+      <c r="E36">
+        <v>1.0341000556945801</v>
+      </c>
+      <c r="F36">
+        <v>0.36179998517036399</v>
+      </c>
+      <c r="G36">
+        <v>0.92839998006820701</v>
+      </c>
+      <c r="H36">
+        <v>0.52090001106262207</v>
+      </c>
+      <c r="I36">
+        <v>0.31330001354217529</v>
+      </c>
+      <c r="J36">
+        <v>0.34139999747276306</v>
+      </c>
+      <c r="K36">
+        <v>0.44389998912811279</v>
+      </c>
+      <c r="L36">
+        <v>0.61320000886917114</v>
+      </c>
+      <c r="M36">
+        <v>0.27239999175071716</v>
+      </c>
+      <c r="N36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>4.2599998414516449E-2</v>
+      </c>
+      <c r="C37">
+        <v>4.2599998414516449E-2</v>
+      </c>
+      <c r="D37">
+        <v>4.2500000447034836E-2</v>
+      </c>
+      <c r="E37">
+        <v>4.7899998724460602E-2</v>
+      </c>
+      <c r="F37">
+        <v>4.7400001436471939E-2</v>
+      </c>
+      <c r="G37">
+        <v>4.6500001102685928E-2</v>
+      </c>
+      <c r="H37">
+        <v>4.7200001776218414E-2</v>
+      </c>
+      <c r="I37">
+        <v>4.7299999743700027E-2</v>
+      </c>
+      <c r="J37">
+        <v>4.7200001776218414E-2</v>
+      </c>
+      <c r="K37">
+        <v>4.6599999070167542E-2</v>
+      </c>
+      <c r="L37">
+        <v>4.6500001102685928E-2</v>
+      </c>
+      <c r="M37">
+        <v>4.7100000083446503E-2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B30:M37">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="4.2599999999999999E-2"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FF92D050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N31">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2201,21 +2200,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N36">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N31">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2249,8 +2234,18 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N36">
+  <conditionalFormatting sqref="N36:N37">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2261,14 +2256,14 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:M37">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
-        <cfvo type="num" val="4.2599999999999999E-2"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FF92D050"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
